--- a/Lab_2/Data.xlsx
+++ b/Lab_2/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisg\OneDrive - NTNU\2024 Vår\Sensorer og instrumentering\Lab\Lab_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/kristgg_ntnu_no/Documents/2024 Vår/Sensorer og instrumentering/Lab/Lab_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E883009-ABAD-4150-B61D-78DDF5AA4BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{33F313D0-C212-4A6D-B5A5-08A222D74031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D82D9319-7C17-4CB7-98CA-85FBED8B5E1B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9124508B-072A-4530-A34C-195835DC1E6A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CEA101CB-4BD1-4A33-9525-02A1914AA89A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,40 +36,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
-    <t>0 grader</t>
+    <t>Vinkel 1</t>
   </si>
   <si>
-    <t>Diff</t>
+    <t>Vinkel 2</t>
   </si>
   <si>
-    <t>Var</t>
+    <t>Vinkel 3</t>
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>Grader</t>
+  </si>
+  <si>
+    <t>Radianer</t>
+  </si>
+  <si>
+    <t>n31</t>
+  </si>
+  <si>
+    <t>n21</t>
+  </si>
+  <si>
+    <t>n32</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t31</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,9 +112,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -94,12 +142,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,39 +200,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -212,7 +284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -323,13 +395,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -338,6 +403,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -402,286 +474,1160 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1302C-4997-4852-BE2F-3F97648F1414}">
-  <dimension ref="A7:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED319A0D-C889-4D07-8610-3A79F9BB31F1}">
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>243.19793959904899</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.24460478006971</v>
+      </c>
+      <c r="D3">
+        <v>-21</v>
+      </c>
+      <c r="E3">
+        <v>-11</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J3" s="16">
+        <v>58.425171286805202</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1.0197116049963999</v>
+      </c>
+      <c r="L3" s="17">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8">
+        <v>10</v>
+      </c>
+      <c r="N3" s="8">
+        <v>-11</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="R3" s="1">
+        <v>176.80206040095001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3.0857780783064599</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>-0.32</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>244.71500395394801</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.27108254802733</v>
+      </c>
+      <c r="D4">
+        <v>-21</v>
+      </c>
+      <c r="E4">
+        <v>-12</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J4" s="16">
+        <v>56.9017981908368</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.99312372873545496</v>
+      </c>
+      <c r="L4" s="17">
+        <v>21</v>
+      </c>
+      <c r="M4" s="8">
+        <v>10</v>
+      </c>
+      <c r="N4" s="8">
+        <v>-12</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <v>178.37356485189099</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3.11320600518513</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>11</v>
+      </c>
+      <c r="V4">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <v>-0.32</v>
+      </c>
+      <c r="X4">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>241.57482871319399</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D5">
+        <v>-21</v>
+      </c>
+      <c r="E5">
+        <v>-11</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J5" s="16">
+        <v>58.425171286805202</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1.0197116049963999</v>
+      </c>
+      <c r="L5" s="17">
+        <v>21</v>
+      </c>
+      <c r="M5" s="8">
+        <v>10</v>
+      </c>
+      <c r="N5" s="8">
+        <v>-11</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="R5" s="1">
+        <v>178.37356485189099</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3.11320600518513</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>11</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>-0.32</v>
+      </c>
+      <c r="X5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>241.57482871319399</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D6">
+        <v>-21</v>
+      </c>
+      <c r="E6">
+        <v>-11</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J6" s="16">
+        <v>58.425171286805202</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1.0197116049963999</v>
+      </c>
+      <c r="L6" s="17">
+        <v>21</v>
+      </c>
+      <c r="M6" s="8">
+        <v>10</v>
+      </c>
+      <c r="N6" s="19">
+        <v>-11</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="R6" s="1">
+        <v>176.80206040095001</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3.0857780783064599</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
+      <c r="V6">
+        <v>20</v>
+      </c>
+      <c r="W6">
+        <v>-0.32</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>241.57482871319399</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D7">
+        <v>-21</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J7" s="16">
+        <v>58.425171286805202</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1.0197116049963999</v>
+      </c>
+      <c r="L7" s="17">
+        <v>21</v>
+      </c>
+      <c r="M7" s="8">
+        <v>10</v>
+      </c>
+      <c r="N7" s="19">
+        <v>-11</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="R7" s="1">
+        <v>178.37356485189099</v>
+      </c>
+      <c r="S7" s="2">
+        <v>3.11320600518513</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>11</v>
+      </c>
+      <c r="V7">
+        <v>20</v>
+      </c>
+      <c r="W7">
+        <v>-0.32</v>
+      </c>
+      <c r="X7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>241.57482871319399</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D8">
+        <v>-21</v>
+      </c>
+      <c r="E8">
+        <v>-11</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J8" s="16">
+        <v>58.4736042675463</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1.02055691997689</v>
+      </c>
+      <c r="L8" s="17">
+        <v>22</v>
+      </c>
+      <c r="M8" s="8">
+        <v>10</v>
+      </c>
+      <c r="N8" s="19">
+        <v>-11</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="R8" s="1">
+        <v>175.131137189252</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3.0566149667143399</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>12</v>
+      </c>
+      <c r="V8">
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <v>-0.28799999999999998</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>241.57482871319399</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D9">
+        <v>-21</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J9" s="16">
+        <v>56.9017981908368</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.99312372873545496</v>
+      </c>
+      <c r="L9" s="17">
+        <v>21</v>
+      </c>
+      <c r="M9" s="8">
+        <v>10</v>
+      </c>
+      <c r="N9" s="19">
+        <v>-12</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="R9" s="1">
+        <v>178.37356485189099</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3.11320600518513</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>11</v>
+      </c>
+      <c r="V9">
+        <v>20</v>
+      </c>
+      <c r="W9">
+        <v>-0.32</v>
+      </c>
+      <c r="X9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>241.57482871319399</v>
       </c>
       <c r="C10" s="2">
-        <v>7.0526770272615202</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3">
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D10">
+        <v>-21</v>
+      </c>
+      <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J10" s="16">
+        <v>56.9017981908368</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.99312372873545496</v>
+      </c>
+      <c r="L10" s="17">
+        <v>21</v>
+      </c>
+      <c r="M10" s="8">
+        <v>10</v>
+      </c>
+      <c r="N10" s="19">
+        <v>-12</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="R10" s="1">
+        <v>176.80206040095001</v>
+      </c>
+      <c r="S10" s="2">
+        <v>3.0857780783064599</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>12</v>
+      </c>
+      <c r="V10">
+        <v>20</v>
+      </c>
+      <c r="W10">
+        <v>-0.32</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>241.57482871319399</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D11">
+        <v>-21</v>
+      </c>
+      <c r="E11">
+        <v>-11</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J11" s="16">
         <v>58.425171286805202</v>
       </c>
-      <c r="F10" s="3">
-        <v>176.80206040095001</v>
-      </c>
-      <c r="G10" s="3">
-        <v>243.19793959904899</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>7.0526770272615202</v>
-      </c>
-      <c r="E11" s="3">
-        <v>56.9017981908368</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="K11" s="18">
+        <v>1.0197116049963999</v>
+      </c>
+      <c r="L11" s="17">
+        <v>21</v>
+      </c>
+      <c r="M11" s="8">
+        <v>10</v>
+      </c>
+      <c r="N11" s="19">
+        <v>-11</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="R11" s="1">
         <v>178.37356485189099</v>
       </c>
-      <c r="G11" s="3">
-        <v>244.71500395394801</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="S11" s="2">
+        <v>3.11320600518513</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>11</v>
+      </c>
+      <c r="V11">
+        <v>20</v>
+      </c>
+      <c r="W11">
+        <v>-0.32</v>
+      </c>
+      <c r="X11">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>241.57482871319399</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D12">
+        <v>-21</v>
+      </c>
+      <c r="E12">
+        <v>-11</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="J12" s="16">
+        <v>58.425171286805202</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1.0197116049963999</v>
+      </c>
+      <c r="L12" s="17">
+        <v>21</v>
+      </c>
+      <c r="M12" s="8">
+        <v>10</v>
+      </c>
+      <c r="N12" s="19">
+        <v>-11</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="R12" s="1">
+        <v>176.69569481984399</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3.0839216487053598</v>
+      </c>
+      <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+      <c r="V12">
+        <v>20</v>
+      </c>
+      <c r="W12">
+        <v>-0.28799999999999998</v>
+      </c>
+      <c r="X12">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>7.0526770272615202</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B14">
+        <f>_xlfn.STDEV.P(B3:B12)</f>
+        <v>1.0112517005192607</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:Y14" si="0">_xlfn.STDEV.P(C3:C12)</f>
+        <v>1.7649671740448975E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.70141127850534268</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1.2241936220539889E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>1.0702572269202317</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>1.8679512453022493E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>_xlfn.VAR.P(B3:B12)</f>
+        <v>1.0226300018030965</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:Y15" si="1">_xlfn.VAR.P(C3:C12)</f>
+        <v>3.1151091254560313E-4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.49197778161449934</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.4986500242776646E-4</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1454505317749846</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>3.4892418548262245E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <f>MEDIAN(B3:B12)</f>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:Y16" si="2">MEDIAN(C3:C12)</f>
+        <v>4.2162761509865803</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="2"/>
+        <v>-21</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
         <v>58.425171286805202</v>
       </c>
-      <c r="F12" s="3">
-        <v>178.37356485189099</v>
-      </c>
-      <c r="G12" s="3">
-        <v>241.57482871319399</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>7.0526770272615202</v>
-      </c>
-      <c r="E13" s="3">
-        <v>58.425171286805202</v>
-      </c>
-      <c r="F13" s="3">
-        <v>176.80206040095001</v>
-      </c>
-      <c r="G13" s="3">
-        <v>241.57482871319399</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>7.0526770272615202</v>
-      </c>
-      <c r="E14" s="3">
-        <v>58.425171286805202</v>
-      </c>
-      <c r="F14" s="3">
-        <v>178.37356485189099</v>
-      </c>
-      <c r="G14" s="3">
-        <v>241.57482871319399</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>7.0526770272615202</v>
-      </c>
-      <c r="E15" s="3">
-        <v>58.4736042675463</v>
-      </c>
-      <c r="F15" s="3">
-        <v>175.131137189252</v>
-      </c>
-      <c r="G15" s="3">
-        <v>241.57482871319399</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="1">
-        <f>AVERAGE(C10:C15)</f>
-        <v>7.0526770272615211</v>
-      </c>
-      <c r="E16" s="3">
-        <v>56.9017981908368</v>
-      </c>
-      <c r="F16" s="3">
-        <v>178.37356485189099</v>
-      </c>
-      <c r="G16" s="3">
-        <v>241.57482871319399</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E17" s="3">
-        <v>56.9017981908368</v>
-      </c>
-      <c r="F17" s="3">
-        <v>176.80206040095001</v>
-      </c>
-      <c r="G17" s="3">
-        <v>241.57482871319399</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E18" s="3">
-        <v>58.425171286805202</v>
-      </c>
-      <c r="F18" s="3">
-        <v>178.37356485189099</v>
-      </c>
-      <c r="G18" s="3">
-        <v>241.57482871319399</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E19" s="3">
-        <v>58.425171286805202</v>
-      </c>
-      <c r="F19" s="3">
-        <v>176.69569481984399</v>
-      </c>
-      <c r="G19" s="3">
-        <v>241.57482871319399</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <f>MAXA(E10:E19)-MIN(E10:E19)</f>
-        <v>1.5718060767094997</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" ref="F20:G20" si="0">MAXA(F10:F19)-MIN(F10:F19)</f>
-        <v>3.2424276626389883</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1401752407540187</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <f>VARPA(E10:E19)</f>
-        <v>0.49197778161449934</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" ref="F21:H21" si="1">VARPA(F10:F19)</f>
-        <v>1.1454505317749846</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0226300018030965</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C22" s="3">
-        <v>8.3504707450691598</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <f>STDEVPA(E10:E19)</f>
-        <v>0.70141127850534268</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" ref="F22:H22" si="2">STDEVPA(F10:F19)</f>
-        <v>1.0702572269202317</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0112517005192607</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C23" s="3">
-        <v>8.3504707450691598</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C24" s="3">
-        <v>7.0526770272615202</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C25" s="3">
-        <v>6.8118065987622103</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C26" s="3">
-        <v>6.8118065987622103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C27" s="3">
-        <v>8.3504707450691598</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <f>MAXA(C22:C27)-MIN(C22:C27)</f>
-        <v>1.5386641463069495</v>
-      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0197116049963999</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="2"/>
+        <v>177.58781262642049</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="2"/>
+        <v>3.099492041745795</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V16" s="20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.32</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="19" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="H28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab_2/Data.xlsx
+++ b/Lab_2/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/kristgg_ntnu_no/Documents/2024 Vår/Sensorer og instrumentering/Lab/Lab_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{33F313D0-C212-4A6D-B5A5-08A222D74031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D82D9319-7C17-4CB7-98CA-85FBED8B5E1B}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{33F313D0-C212-4A6D-B5A5-08A222D74031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C6DD37-BBD1-416E-B6C3-61779E7C1CDC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CEA101CB-4BD1-4A33-9525-02A1914AA89A}"/>
   </bookViews>
@@ -85,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,36 +142,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,6 +177,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,18 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED319A0D-C889-4D07-8610-3A79F9BB31F1}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
@@ -536,36 +530,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="14" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="5" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -592,28 +586,28 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="R2" t="s">
@@ -669,28 +663,28 @@
       <c r="I3" s="4">
         <v>0.28799999999999998</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="8">
         <v>58.425171286805202</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="2">
         <v>1.0197116049963999</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="9">
         <v>21</v>
       </c>
-      <c r="M3" s="8">
-        <v>10</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
         <v>-11</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P3" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="P3" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q3" s="6">
         <v>-0.35199999999999998</v>
       </c>
       <c r="R3" s="1">
@@ -746,28 +740,28 @@
       <c r="I4" s="4">
         <v>0.28799999999999998</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="8">
         <v>56.9017981908368</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="2">
         <v>0.99312372873545496</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="9">
         <v>21</v>
       </c>
-      <c r="M4" s="8">
-        <v>10</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
         <v>-12</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P4" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q4" s="13">
+      <c r="P4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q4" s="6">
         <v>-0.38400000000000001</v>
       </c>
       <c r="R4" s="1">
@@ -823,28 +817,28 @@
       <c r="I5" s="1">
         <v>0.32</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="8">
         <v>58.425171286805202</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="2">
         <v>1.0197116049963999</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="9">
         <v>21</v>
       </c>
-      <c r="M5" s="8">
-        <v>10</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
         <v>-11</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P5" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="P5" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q5" s="6">
         <v>-0.35199999999999998</v>
       </c>
       <c r="R5" s="1">
@@ -900,28 +894,28 @@
       <c r="I6" s="1">
         <v>0.32</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="8">
         <v>58.425171286805202</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="2">
         <v>1.0197116049963999</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="9">
         <v>21</v>
       </c>
-      <c r="M6" s="8">
-        <v>10</v>
-      </c>
-      <c r="N6" s="19">
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
         <v>-11</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P6" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q6" s="13">
+      <c r="P6" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q6" s="6">
         <v>-0.35199999999999998</v>
       </c>
       <c r="R6" s="1">
@@ -977,28 +971,28 @@
       <c r="I7" s="1">
         <v>0.32</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="8">
         <v>58.425171286805202</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="2">
         <v>1.0197116049963999</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="9">
         <v>21</v>
       </c>
-      <c r="M7" s="8">
-        <v>10</v>
-      </c>
-      <c r="N7" s="19">
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
         <v>-11</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P7" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q7" s="13">
+      <c r="P7" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q7" s="6">
         <v>-0.35199999999999998</v>
       </c>
       <c r="R7" s="1">
@@ -1054,28 +1048,28 @@
       <c r="I8" s="1">
         <v>0.32</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="8">
         <v>58.4736042675463</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="2">
         <v>1.02055691997689</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="9">
         <v>22</v>
       </c>
-      <c r="M8" s="8">
-        <v>10</v>
-      </c>
-      <c r="N8" s="19">
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
         <v>-11</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="4">
         <v>0.70399999999999996</v>
       </c>
-      <c r="P8" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q8" s="13">
+      <c r="P8" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q8" s="6">
         <v>-0.35199999999999998</v>
       </c>
       <c r="R8" s="1">
@@ -1131,28 +1125,28 @@
       <c r="I9" s="1">
         <v>0.32</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="8">
         <v>56.9017981908368</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="2">
         <v>0.99312372873545496</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="9">
         <v>21</v>
       </c>
-      <c r="M9" s="8">
-        <v>10</v>
-      </c>
-      <c r="N9" s="19">
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
         <v>-12</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P9" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q9" s="13">
+      <c r="P9" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q9" s="6">
         <v>-0.38400000000000001</v>
       </c>
       <c r="R9" s="1">
@@ -1208,28 +1202,28 @@
       <c r="I10" s="1">
         <v>0.32</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="8">
         <v>56.9017981908368</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="2">
         <v>0.99312372873545496</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="9">
         <v>21</v>
       </c>
-      <c r="M10" s="8">
-        <v>10</v>
-      </c>
-      <c r="N10" s="19">
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
         <v>-12</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P10" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q10" s="13">
+      <c r="P10" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q10" s="6">
         <v>-0.38400000000000001</v>
       </c>
       <c r="R10" s="1">
@@ -1285,28 +1279,28 @@
       <c r="I11" s="1">
         <v>0.32</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="8">
         <v>58.425171286805202</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="2">
         <v>1.0197116049963999</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="9">
         <v>21</v>
       </c>
-      <c r="M11" s="8">
-        <v>10</v>
-      </c>
-      <c r="N11" s="19">
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
         <v>-11</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P11" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q11" s="13">
+      <c r="P11" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q11" s="6">
         <v>-0.35199999999999998</v>
       </c>
       <c r="R11" s="1">
@@ -1362,28 +1356,28 @@
       <c r="I12" s="1">
         <v>0.32</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="8">
         <v>58.425171286805202</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="2">
         <v>1.0197116049963999</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="9">
         <v>21</v>
       </c>
-      <c r="M12" s="8">
-        <v>10</v>
-      </c>
-      <c r="N12" s="19">
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
         <v>-11</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="4">
         <v>0.67199999999999904</v>
       </c>
-      <c r="P12" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="Q12" s="13">
+      <c r="P12" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="Q12" s="6">
         <v>-0.35199999999999998</v>
       </c>
       <c r="R12" s="1">
@@ -1420,7 +1414,7 @@
         <v>1.0112517005192607</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:Y14" si="0">_xlfn.STDEV.P(C3:C12)</f>
+        <f t="shared" ref="C14:S14" si="0">_xlfn.STDEV.P(C3:C12)</f>
         <v>1.7649671740448975E-2</v>
       </c>
       <c r="J14">
@@ -1449,7 +1443,7 @@
         <v>1.0226300018030965</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:Y15" si="1">_xlfn.VAR.P(C3:C12)</f>
+        <f t="shared" ref="C15:S15" si="1">_xlfn.VAR.P(C3:C12)</f>
         <v>3.1151091254560313E-4</v>
       </c>
       <c r="J15">
@@ -1481,15 +1475,15 @@
         <f t="shared" ref="C16:Y16" si="2">MEDIAN(C3:C12)</f>
         <v>4.2162761509865803</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="9">
         <f t="shared" si="2"/>
         <v>-21</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="9">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1513,15 +1507,15 @@
         <f t="shared" si="2"/>
         <v>1.0197116049963999</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="9">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="M16" s="20">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="M16" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="9">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
@@ -1545,15 +1539,15 @@
         <f t="shared" si="2"/>
         <v>3.099492041745795</v>
       </c>
-      <c r="T16" s="20">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="U16" s="20">
+      <c r="T16" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U16" s="9">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -1570,55 +1564,160 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="17" spans="8:15" x14ac:dyDescent="0.35">
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="19" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="8:15" x14ac:dyDescent="0.35">
-      <c r="H24" s="1"/>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F24" s="1">
+        <f>B3</f>
+        <v>243.19793959904899</v>
+      </c>
+      <c r="G24" s="1">
+        <v>242.77652220312299</v>
+      </c>
+      <c r="H24" s="1">
+        <f>F24-G24</f>
+        <v>0.42141739592599947</v>
+      </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="8:15" x14ac:dyDescent="0.35">
-      <c r="H25" s="1"/>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F25" s="1">
+        <f t="shared" ref="F25:F33" si="3">B4</f>
+        <v>244.71500395394801</v>
+      </c>
+      <c r="G25" s="1">
+        <v>243.12254901112601</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ref="H25:H33" si="4">F25-G25</f>
+        <v>1.5924549428220018</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="8:15" x14ac:dyDescent="0.35">
-      <c r="H26" s="1"/>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="G26" s="1">
+        <v>242.76547756824999</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.190648855055997</v>
+      </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="8:15" x14ac:dyDescent="0.35">
-      <c r="H27" s="1"/>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F27" s="1">
+        <f t="shared" si="3"/>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="G27" s="1">
+        <v>242.76547756824999</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.190648855055997</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="8:15" x14ac:dyDescent="0.35">
-      <c r="H28" s="1"/>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F28" s="1">
+        <f t="shared" si="3"/>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="G28" s="1">
+        <v>242.195366069881</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.62053735668700938</v>
+      </c>
       <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F29" s="1">
+        <f t="shared" si="3"/>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="G29" s="1">
+        <v>242.57333738608901</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.99850867289501366</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F30" s="1">
+        <f t="shared" si="3"/>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="G30" s="1">
+        <v>242.76547756824999</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.190648855055997</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="G31" s="1">
+        <v>242.54292390406101</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.96809519086701812</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F32" s="1">
+        <f t="shared" si="3"/>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="G32" s="1">
+        <v>242.56311910085901</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.98829038766501753</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F33" s="1">
+        <f t="shared" si="3"/>
+        <v>241.57482871319399</v>
+      </c>
+      <c r="G33" s="1">
+        <v>242.56311910085901</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.98829038766501753</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
